--- a/dfdf.xlsx
+++ b/dfdf.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>Row Labels</t>
   </si>
@@ -84,13 +84,19 @@
   </si>
   <si>
     <t>MANJEET  GEETA  MD</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Count of patients</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,16 +104,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,16 +142,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G11"/>
+      <selection activeCell="M1" sqref="M1:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +464,7 @@
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +477,14 @@
       <c r="G1" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -443,8 +497,14 @@
       <c r="G2" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -457,8 +517,14 @@
       <c r="G3" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -471,8 +537,14 @@
       <c r="G4" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -485,8 +557,14 @@
       <c r="G5" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -499,8 +577,14 @@
       <c r="G6" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -513,8 +597,14 @@
       <c r="G7" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -527,8 +617,14 @@
       <c r="G8" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="M8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
@@ -536,7 +632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
@@ -544,7 +640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>

--- a/dfdf.xlsx
+++ b/dfdf.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Row Labels</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t>Count of patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBIKA  RAO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTANTINA C TUCKER  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGNES  ERRIHANI  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANAND A SHAH  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STEPHANIE A BRYANT  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIE A MORA  </t>
   </si>
 </sst>
 </file>
@@ -453,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N8"/>
+      <selection activeCell="Q2" sqref="Q2:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,7 +482,7 @@
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +502,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -503,8 +521,14 @@
       <c r="N2" s="4">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -523,8 +547,14 @@
       <c r="N3" s="4">
         <v>241</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -543,8 +573,14 @@
       <c r="N4" s="4">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -563,8 +599,14 @@
       <c r="N5" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -583,8 +625,14 @@
       <c r="N6" s="4">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -603,8 +651,14 @@
       <c r="N7" s="4">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -623,29 +677,61 @@
       <c r="N8" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="2">
         <v>12</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
